--- a/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2003 (PAL03).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Arena League 2003 (PAL03).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,224 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bonesplitter</t>
+          <t>('Bonesplitter', ['{1}', 'Artifact — Equipment', 'Equipped creature gets +2/+0.', 'Equip {1}'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}</t>
+          <t>('Elvish Aberration', ['{5}{G}', 'Creature — Elf Mutant', '{T}: Add {G}{G}{G}.', 'Forestcycling {2} ({2}, Discard this card: Search your library for a Forest card, reveal it, put it into your hand, then shuffle your library.)', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Artifact — Equipment</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Equipped creature gets +2/+0.</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Equip {1}</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Elvish Aberration</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{5}{G}</t>
+          <t>('Skirk Marauder', ['{1}{R}', 'Creature — Goblin', 'Morph {2}{R} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)', 'When Skirk Marauder is turned face up, it deals 2 damage to any target.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Creature — Elf Mutant</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{T}: Add {G}{G}{G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Forestcycling {2} ({2}, Discard this card: Search your library for a Forest card, reveal it, put it into your hand, then shuffle your library.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Basic Land — Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>({T}: Add {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Basic Land — Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Basic Land — Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>({T}: Add {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Basic Land — Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>({T}: Add {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Skirk Marauder</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Morph {2}{R} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>When Skirk Marauder is turned face up, it deals 2 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Basic Land — Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>({T}: Add {B}.)</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
